--- a/Project_Management/Sprint5/Burndown chart.xlsx
+++ b/Project_Management/Sprint5/Burndown chart.xlsx
@@ -100,7 +100,7 @@
     </font>
     <font>
       <sz val="20"/>
-      <color indexed="10"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -116,26 +116,32 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="18"/>
+      <color indexed="19"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="18"/>
+      <color indexed="19"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
-      <color indexed="18"/>
+      <color indexed="19"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -180,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -190,28 +196,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -220,16 +226,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -275,13 +281,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -290,7 +296,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -302,10 +308,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -317,7 +323,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -365,13 +371,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,16 +514,78 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,197 +595,221 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="4" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="4" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="7" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="7" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="7" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="8" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="8" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="8" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="8" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="9" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -737,8 +829,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff548135"/>
       <rgbColor rgb="fff7caac"/>
       <rgbColor rgb="fff2f2f2"/>
@@ -746,6 +838,7 @@
       <rgbColor rgb="fffff2cb"/>
       <rgbColor rgb="ffb4c6e7"/>
       <rgbColor rgb="ffc5deb5"/>
+      <rgbColor rgb="ffd9d9d9"/>
       <rgbColor rgb="ff595959"/>
       <rgbColor rgb="ff00b050"/>
     </indexedColors>
@@ -788,10 +881,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.415565"/>
+          <c:x val="0.415141"/>
           <c:y val="0"/>
-          <c:w val="0.16887"/>
-          <c:h val="0.0672195"/>
+          <c:w val="0.169719"/>
+          <c:h val="0.0680704"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -807,10 +900,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0451349"/>
-          <c:y val="0.0672195"/>
-          <c:w val="0.949865"/>
-          <c:h val="0.839884"/>
+          <c:x val="0.0453617"/>
+          <c:y val="0.0680704"/>
+          <c:w val="0.949638"/>
+          <c:h val="0.838015"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -838,7 +931,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -930,22 +1023,22 @@
                   <c:v>7.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,7 +1065,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1103,7 +1196,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1195,7 +1288,7 @@
                   <c:v>1.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000000</c:v>
+                  <c:v>1.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.000000</c:v>
@@ -1355,10 +1448,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.332325"/>
-          <c:y val="0.962174"/>
-          <c:w val="0.335437"/>
-          <c:h val="0.037826"/>
+          <c:x val="0.324253"/>
+          <c:y val="0.961853"/>
+          <c:w val="0.356606"/>
+          <c:h val="0.0381466"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1409,15 +1502,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>181062</xdr:colOff>
+      <xdr:colOff>181061</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>153441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>622301</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>15091</xdr:rowOff>
+      <xdr:colOff>573167</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1425,8 +1518,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="854162" y="3532911"/>
-        <a:ext cx="9826540" cy="4520011"/>
+        <a:off x="854161" y="3532911"/>
+        <a:ext cx="9777407" cy="4463507"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1632,17 +1725,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1669,10 +1762,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1911,12 +2004,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2193,7 +2286,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2220,10 +2313,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2465,7 +2558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2644,369 +2737,373 @@
       <c r="E6" t="s" s="25">
         <v>13</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="27"/>
+      <c r="F6" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28"/>
       <c r="T6" s="8"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="28">
+      <c r="B7" s="29">
         <v>2</v>
       </c>
-      <c r="C7" t="s" s="29">
+      <c r="C7" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="31">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="31">
+      <c r="E7" t="s" s="32">
         <v>13</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="33"/>
+      <c r="F7" s="33">
+        <v>1</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="35"/>
       <c r="T7" s="8"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="28">
+      <c r="B8" s="29">
         <v>3</v>
       </c>
-      <c r="C8" t="s" s="29">
+      <c r="C8" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="31">
         <v>2</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="36">
         <v>1</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="35"/>
       <c r="T8" s="8"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="28">
+      <c r="B9" s="29">
         <v>4</v>
       </c>
-      <c r="C9" t="s" s="29">
+      <c r="C9" t="s" s="30">
         <v>16</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="31">
         <v>2</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="33"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="35"/>
       <c r="T9" s="8"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="28">
+      <c r="B10" s="29">
         <v>5</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="33"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="35"/>
       <c r="T10" s="8"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="28">
+      <c r="B11" s="29">
         <v>6</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="35"/>
       <c r="T11" s="8"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="28">
+      <c r="B12" s="29">
         <v>7</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="33"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="35"/>
       <c r="T12" s="8"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="38">
+      <c r="B13" s="40">
         <v>8</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="45"/>
       <c r="T13" s="8"/>
     </row>
     <row r="14" ht="14.05" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" t="s" s="44">
+      <c r="B14" t="s" s="46">
         <v>17</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48">
         <v>0</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="49">
         <f>SUM(E6:E13)</f>
         <v>1</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="50">
         <f>SUM(F6:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="48">
+        <v>1</v>
+      </c>
+      <c r="G14" s="50">
         <f>SUM(G6:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="50">
         <f>SUM(H6:H13)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="50">
         <f>SUM(I6:I13)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="50">
         <f>SUM(J6:J13)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="50">
         <f>SUM(K6:K13)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="50"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="52"/>
       <c r="T14" s="8"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" t="s" s="51">
+      <c r="B15" t="s" s="53">
         <v>18</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53">
+      <c r="C15" s="54"/>
+      <c r="D15" s="55">
         <f>SUM(D6:D14)</f>
         <v>8</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="56">
         <f>D15-SUM(E6:E13)</f>
         <v>7</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="57">
         <f>E15-SUM(F6:F13)</f>
-        <v>7</v>
-      </c>
-      <c r="G15" s="55">
+        <v>6</v>
+      </c>
+      <c r="G15" s="57">
         <f>F15-SUM(G6:G13)</f>
-        <v>7</v>
-      </c>
-      <c r="H15" s="55">
+        <v>6</v>
+      </c>
+      <c r="H15" s="57">
         <f>G15-SUM(H6:H13)</f>
-        <v>7</v>
-      </c>
-      <c r="I15" s="55">
+        <v>6</v>
+      </c>
+      <c r="I15" s="57">
         <f>H15-SUM(I6:I13)</f>
-        <v>7</v>
-      </c>
-      <c r="J15" s="55">
+        <v>6</v>
+      </c>
+      <c r="J15" s="57">
         <f>I15-SUM(J6:J13)</f>
-        <v>7</v>
-      </c>
-      <c r="K15" s="55">
+        <v>6</v>
+      </c>
+      <c r="K15" s="57">
         <f>J15-SUM(K6:K13)</f>
-        <v>7</v>
-      </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="56"/>
+        <v>6</v>
+      </c>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="58"/>
       <c r="T15" s="8"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" t="s" s="57">
+      <c r="B16" t="s" s="59">
         <v>19</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59">
+      <c r="C16" s="60"/>
+      <c r="D16" s="61">
         <f>D15</f>
         <v>8</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="62">
         <f>$D$16-($D$16/7*1)</f>
         <v>6.85714285714286</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="63">
         <f>$D$16-($D$16/7*2)</f>
         <v>5.71428571428571</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="63">
         <f>$D$16-($D$16/7*3)</f>
         <v>4.57142857142857</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="63">
         <f>$D$16-($D$16/7*4)</f>
         <v>3.42857142857143</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="63">
         <f>$D$16-($D$16/7*5)</f>
         <v>2.28571428571429</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16" s="63">
         <f>$D$16-($D$16/7*6)</f>
         <v>1.14285714285714</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16" s="63">
         <f>$D$16-($D$16/7*7)</f>
         <v>-1e-33</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="62"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="64"/>
       <c r="T16" s="8"/>
     </row>
     <row r="17" ht="14.05" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
@@ -3603,6 +3700,50 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
+    <row r="45" ht="13.55" customHeight="1">
+      <c r="A45" s="66"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="68"/>
+    </row>
+    <row r="46" ht="13.55" customHeight="1">
+      <c r="A46" s="69"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="71"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C4:C5"/>

--- a/Project_Management/Sprint5/Burndown chart.xlsx
+++ b/Project_Management/Sprint5/Burndown chart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>User Story 1 - Work</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>0.5</t>
@@ -595,7 +598,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -675,6 +678,9 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -881,10 +887,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.415141"/>
+          <c:x val="0.414714"/>
           <c:y val="0"/>
-          <c:w val="0.169719"/>
-          <c:h val="0.0680704"/>
+          <c:w val="0.170572"/>
+          <c:h val="0.0689321"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -900,10 +906,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0453617"/>
-          <c:y val="0.0680704"/>
-          <c:w val="0.949638"/>
-          <c:h val="0.838015"/>
+          <c:x val="0.0455897"/>
+          <c:y val="0.0689321"/>
+          <c:w val="0.94941"/>
+          <c:h val="0.836123"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1026,19 +1032,19 @@
                   <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1291,7 +1297,7 @@
                   <c:v>1.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.000000</c:v>
@@ -1448,10 +1454,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.324253"/>
-          <c:y val="0.961853"/>
-          <c:w val="0.356606"/>
-          <c:h val="0.0381466"/>
+          <c:x val="0.316092"/>
+          <c:y val="0.961529"/>
+          <c:w val="0.37798"/>
+          <c:h val="0.0384712"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1502,15 +1508,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>181061</xdr:colOff>
+      <xdr:colOff>181060</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>153441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>573167</xdr:colOff>
+      <xdr:colOff>524277</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>142737</xdr:rowOff>
+      <xdr:rowOff>86937</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1518,8 +1524,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="854161" y="3532911"/>
-        <a:ext cx="9777407" cy="4463507"/>
+        <a:off x="854160" y="3532911"/>
+        <a:ext cx="9728518" cy="4407707"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2738,372 +2744,378 @@
         <v>13</v>
       </c>
       <c r="F6" t="s" s="26">
-        <v>13</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
+        <v>14</v>
+      </c>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="29"/>
       <c r="T6" s="8"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="29">
+      <c r="B7" s="30">
         <v>2</v>
       </c>
-      <c r="C7" t="s" s="30">
-        <v>14</v>
-      </c>
-      <c r="D7" s="31">
+      <c r="C7" t="s" s="31">
+        <v>15</v>
+      </c>
+      <c r="D7" s="32">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="32">
+      <c r="E7" t="s" s="33">
         <v>13</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="34">
         <v>1</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="35"/>
+      <c r="G7" s="34">
+        <v>1</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="36"/>
       <c r="T7" s="8"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="29">
+      <c r="B8" s="30">
         <v>3</v>
       </c>
-      <c r="C8" t="s" s="30">
-        <v>15</v>
-      </c>
-      <c r="D8" s="31">
+      <c r="C8" t="s" s="31">
+        <v>16</v>
+      </c>
+      <c r="D8" s="32">
         <v>2</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="37">
         <v>1</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="34">
+        <v>1</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="36"/>
       <c r="T8" s="8"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="29">
+      <c r="B9" s="30">
         <v>4</v>
       </c>
-      <c r="C9" t="s" s="30">
-        <v>16</v>
-      </c>
-      <c r="D9" s="31">
+      <c r="C9" t="s" s="31">
+        <v>17</v>
+      </c>
+      <c r="D9" s="32">
         <v>2</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="35"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="36"/>
       <c r="T9" s="8"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="29">
+      <c r="B10" s="30">
         <v>5</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="35"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="36"/>
       <c r="T10" s="8"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="29">
+      <c r="B11" s="30">
         <v>6</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="35"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="36"/>
       <c r="T11" s="8"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="29">
+      <c r="B12" s="30">
         <v>7</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="35"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="36"/>
       <c r="T12" s="8"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="40">
+      <c r="B13" s="41">
         <v>8</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
       <c r="T13" s="8"/>
     </row>
     <row r="14" ht="14.05" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" t="s" s="46">
-        <v>17</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48">
+      <c r="B14" t="s" s="47">
+        <v>18</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49">
         <v>0</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="50">
         <f>SUM(E6:E13)</f>
         <v>1</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="51">
         <f>SUM(F6:F13)</f>
         <v>1</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="51">
         <f>SUM(G6:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="50">
+        <v>3</v>
+      </c>
+      <c r="H14" s="51">
         <f>SUM(H6:H13)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="51">
         <f>SUM(I6:I13)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="51">
         <f>SUM(J6:J13)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="51">
         <f>SUM(K6:K13)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="53"/>
       <c r="T14" s="8"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" t="s" s="53">
-        <v>18</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55">
+      <c r="B15" t="s" s="54">
+        <v>19</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56">
         <f>SUM(D6:D14)</f>
         <v>8</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="57">
         <f>D15-SUM(E6:E13)</f>
         <v>7</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="58">
         <f>E15-SUM(F6:F13)</f>
         <v>6</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="58">
         <f>F15-SUM(G6:G13)</f>
-        <v>6</v>
-      </c>
-      <c r="H15" s="57">
+        <v>3</v>
+      </c>
+      <c r="H15" s="58">
         <f>G15-SUM(H6:H13)</f>
-        <v>6</v>
-      </c>
-      <c r="I15" s="57">
+        <v>3</v>
+      </c>
+      <c r="I15" s="58">
         <f>H15-SUM(I6:I13)</f>
-        <v>6</v>
-      </c>
-      <c r="J15" s="57">
+        <v>3</v>
+      </c>
+      <c r="J15" s="58">
         <f>I15-SUM(J6:J13)</f>
-        <v>6</v>
-      </c>
-      <c r="K15" s="57">
+        <v>3</v>
+      </c>
+      <c r="K15" s="58">
         <f>J15-SUM(K6:K13)</f>
-        <v>6</v>
-      </c>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="58"/>
+        <v>3</v>
+      </c>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="59"/>
       <c r="T15" s="8"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" t="s" s="59">
-        <v>19</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61">
+      <c r="B16" t="s" s="60">
+        <v>20</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62">
         <f>D15</f>
         <v>8</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="63">
         <f>$D$16-($D$16/7*1)</f>
         <v>6.85714285714286</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="64">
         <f>$D$16-($D$16/7*2)</f>
         <v>5.71428571428571</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="64">
         <f>$D$16-($D$16/7*3)</f>
         <v>4.57142857142857</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="64">
         <f>$D$16-($D$16/7*4)</f>
         <v>3.42857142857143</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="64">
         <f>$D$16-($D$16/7*5)</f>
         <v>2.28571428571429</v>
       </c>
-      <c r="J16" s="63">
+      <c r="J16" s="64">
         <f>$D$16-($D$16/7*6)</f>
         <v>1.14285714285714</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="64">
         <f>$D$16-($D$16/7*7)</f>
         <v>-1e-33</v>
       </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="65"/>
       <c r="T16" s="8"/>
     </row>
     <row r="17" ht="14.05" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
@@ -3701,48 +3713,48 @@
       <c r="T44" s="2"/>
     </row>
     <row r="45" ht="13.55" customHeight="1">
-      <c r="A45" s="66"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="67"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="67"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="68"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="69"/>
     </row>
     <row r="46" ht="13.55" customHeight="1">
-      <c r="A46" s="69"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="70"/>
-      <c r="S46" s="70"/>
-      <c r="T46" s="71"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="7">
